--- a/Projects/test_data.xlsx
+++ b/Projects/test_data.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pleass fix the stormterror dvalin glitch I can't see the enemy again, i really hate it!</t>
+          <t>Pleass fix the stormterror dvalin glitch I can't see the enemy again, i really hate it!broken_heart</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[4th Attempt] Reminder that Yahoo/Google are unaware of constructive criticism. 3 reviews deleted and counting. Nice to see censorship at its finest. The colours never brighter. MHY hate their players. Simple. Lack of endgame content. Constant artifact grinding. Then to top it off, Thanks for your support, have a cosmetic!  Go on Google Inc. get it. I'll be back with review 5 soon  Oh and Mary? Try listening to the players that made your game successful. Might help. Just a tip.</t>
+          <t>[4th Attempt] Reminder that Yahoo/Google are unaware of constructive criticism. 3 reviews deleted and counting. Nice to see censorship at its finest. The colours never brighter. MHY hate their players. Simple. Lack of endgame content. Constant artifact grinding. Then to top it off, Thanks for your support, have a cosmetic! thumbs_up Go on Google Inc. get it. I'll be back with review 5 soon thumbs_up Oh and Mihoyo? Try listening to the players that made your game successful. Might help. Just a tip.</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>This game demands too much time for so little reward its literally disappointing. And if you think you'll probably get rewarded for it then the answer is no. The fans don't care if you spent hundreds of hours supporting and sharing the game to others. All they care for is money and things you get isn't even guaranteed. Even the most loyal of people will break in this game. Sincerly, A player who's been here since birth. And is going to quit now</t>
+          <t>This game demands too much time for so little reward its literally disappointing. And if you think you'll probably get rewarded for it then the answer is no. The fans don't care if you spent hundreds of hours supporting and sharing the game to others. All they care for is money and things you get isn't even guaranteed. Even the most loyal of people will break in this game. Sincerly, A player who's been here since birth. And is going to quit nowsmiling_face_with_horns</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">It sucks it Just sucks the latest events, kokomiya, anniversary reward, fishing system and the special event u brought today is totally a cherry on the top. It's boring nothing to do quest don't have nice reward and other like different recruitments. Genshin I use to love this game " I don't want to hate it I don't want let it or do the needful </t>
+          <t>It sucks it Just sucks the latest events, kokomiya, anniversary reward, fishing system and the special event u brought today is totally a cherry on the top. It's boring nothing to do quest don't have nice reward and other like different recruitments. Genshin I use to love this game " I don't want to hate it I don't want delete it or do the needful loudly_crying_faceloudly_crying_faceloudly_crying_faceloudly_crying_faceloudly_crying_faceloudly_crying_face</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>High unit cost and it's low budget, laughable character - gain, asking players to buy character constellations, long tedious event events with small rewards, "Best", unobtainable without reward, makes this game pretty bad. If you're a kid, you can only level up a few characters with the joke of a resource you get by playing.</t>
+          <t>High unit cost and it's low budget, laughable character - gain, asking players to buy character constellations, long tedious event events with small rewards, "Best" 5★s unobtainable without reward, makes this game pretty bad. If you're a kid, you can only level up a few characters with the joke of a resource you get by playing.</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please fix the Yun Jin, dvalin, and signora texture, it pissed me off, I'm going to quit this game if you don't </t>
+          <t>Please fix the Yun Jin, dvalin, and signora texture, it pissed me off, I'm going to quit this game if you don't face_with_steam_from_noseface_with_steam_from_nose</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Battery drain plug..! device gets heated up so soon..! Damn </t>
+          <t>Battery drain plug..! device gets heated up so soon..! Damn broken_heart</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Why does after imitating the app at playstore, the game wanna me downloading the resource again. I say it, AGAIN. Thats 5 more days, and prior to downloaeing it for the first time im already done it. I donot know it already. I really like this game. But there is downloading resource again from who nowhere</t>
+          <t>Why does after imitating the app at playstore, the game wanna me downloading the resource again. I say it, AGAIN. Thats 5 more days, and prior to downloaeing it for the first time im already done it. I donot know it already. I really like this game. But there is downloading resource again from who nowherefolded_hands</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">This game gets extra boring when u don't get a quest...i wouldn't recommend downloading it. Some parts of the game does include real money. Unless you're really richy then sure! Have all needs there. But if you're broke, u DON'T wanna waste our time. -Oh &amp; also, the storyline is kinda cliche &amp; like </t>
+          <t>This game gets extra boring when u don't get a quest...i wouldn't recommend downloading it. Some parts of the game does include real money. Unless you're really richy then sure! Have all needs there. But if you're broke, u DON'T wanna waste our time. -Oh &amp; also, the storyline is kinda cliche &amp; a neutral_face</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>This game getting heavier it consumed almost 11% of my storage.It doesn't run smoothly and cause too much delay despite of having a fast internet connection.Maybe it needs more optimization and fix a lot of bugs.I love this game great graphics and story but if it doesn't run smoothly the way it should be time to let go.</t>
+          <t>This game getting heavier it consumed almost 11% of my storage.It doesn't run smoothly and cause too much delay despite of having a fast internet connection.Maybe it needs more optimization and fix a lot of bugs.I love this game great graphics and story but if it doesn't run smoothly the way it should be time to let go.pensive_face</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Gamenya ", " kualitasnya terlaluwa, ni setiap mainah keluar" sendiri gamenya, please perbaiki, "ta sedikit ni ukurannya and bakalan downloadi " game</t>
+          <t>Gamenya ", " kualitasnya terlaluwa, ni setiap mainah keluar" sendiri gamenya, please perbaiki, "ta sedikit ni ukurannya, bakalan downloadi - gamedisappointed_but_relieved_face</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>This is PS4's game, can't run smooth in phone (except gaming phone). Please fix this, don't think we are all using (the) phone, the graphic broken, and..blur.. omggg</t>
+          <t>This is PS4's game, can't run smooth in phone (except gaming phone). Please fix this, don't think we are all using (the) phonedisappointed_but_relieved_facedisappointed_but_relieved_face, the graphic broken, a..blur.. omggg..</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>This Game Is Good But Much Lagging In Indian Servers Solve Lagging Glitch</t>
+          <t>This Game Is Good But Much Lagging In Indian Server To Solve Lagging Glitchfolded_handsloudly_crying_faceangry_face.</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't hate you or anything.......and  </t>
+          <t>I don't hate you or anything.......| _ backhand_index_pointing_rightbackhand_index_pointing_left</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve">The rewards. </t>
+          <t>What rewards by.</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>I really really love this game but I also experienced freezing and rain, my phone has a 4- ram and 128MB internal storage but it's still playing, please please please please I wanted to play this game but that's my main problem when playing, please make an update for it</t>
+          <t>I really really love this game but I also experienced freezing and rain, my phone has a 4- ram and 128MB internal storage but it's still playing, please please please please I wanted to play this game but that's my main problem when playing, please make an update for itfolded_handslight_skin_tonered_heart</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>O no é legal e do bonitinho, as histórias do em legais, a o que te a desejar são mais a te, que diariamente chamamos 60 gemas, em a semana 420 que nem da para da 3 tiros na semana.  a legal ter mais as diárias para que da dos para/roletar na semana, osa em a quando arrumar em suficientes o banner eão (em uma consegue 10es com as diárias). Es der diminuí o tempo para carregar as resinas por dia só é 280 se espera 12a.</t>
+          <t>O no é legal e do bonitinho, as histórias do em legais, a o que te a desejar são mais a te, que diariamente chamamos 60 gemas, em a semana 420 que nem da para da 3 tiros na semana. upside-down_face a legal ter mais as diárias para que da dos tiros/roletar na semana, osa em a quando arrumar em suficientes o banner eão (em uma consegue 10 tiros com as diárias). Es der diminuí o tempo para carregar as resinas por dia só é 280 se espera 12a.</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Oh...nice rewaards mihoyo</t>
+          <t>Oh...nice rewaards mihoyolying_facelying_face</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Played for a couple of minutes now and seems amazing so far! I'd give it 5 starts, hadn't it been for 2 MASSIVE problems for me: - why can't I enter settings before playing the game for the 1st time? Change the langauge? The English VA is HORRIBLE - why is there no gamepad support and using stuff like Octopus as a workaround apparently can get you banned for cheating?  Once those 2 issues are fixed I will accordingly update my rating and make it higher, potentially even 5 stars. But now....</t>
+          <t>Played for a couple of minutes now and seems amazing so far! I'd give it 5 starts, hadn't it been for 2 MASSIVE problems for me: - why can't I enter settings before playing the game for the 1st time? Change the langauge? The English VA is HORRIBLE - why is there no gamepad support and using stuff like Octopus as a workaround apparently can get you banned for cheating? person_facepalming Once those 2 issues are fixed I will accordingly update my rating and make it higher, potentially even 5 stars. But now....</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>I thought this game would be good. It was ok till some point but then the game chose the supposedly optimal server and it is so easy that I can't even move the joystick. And the data can't be carried over servers... Just what I needed</t>
+          <t>I thought this game would be good. It was ok till some point but then the game chose the supposedly optimal server and it is so easy that I can't even move the joystick.expressionless_faceexpressionless_face And the data can't be carried over servers... Just what I needed</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>What the heck? 10GB</t>
+          <t>What the heck are?_clown_faceoncoming_fistthumbs_down</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>The game is awesome! But the game it takes up lot of space...But I also play on mobile but it's a good game I play on my playstation it's super fun unbelievable how much fun it is. Great quality! So I do recommend playing it!</t>
+          <t>The game is awesome! But the game it takes up lot of space...But I also play on mobile but it's a good game I play on my playstation it's super fun unbelievable how much fun it isrolling_on_the_floor_laughing. Great quality! So I do recommend playing it!</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t xml:space="preserve">hellooooo, anniversary rewards???? </t>
+          <t>hellooooo, anniversary rewards???? confused_face</t>
         </is>
       </c>
     </row>
@@ -6716,7 +6716,11 @@
       <c r="B541" t="n">
         <v>3</v>
       </c>
-      <c r="C541" t="inlineStr"/>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Early game's rewards is better than 1st anniversary celebration rewards.... The most sample is the event called rain. Feel sad for this。 But anyway I will still playing for it, still sad with less reward event</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -6738,11 +6742,7 @@
       <c r="B543" t="n">
         <v>3</v>
       </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>I LOVE THIS GAME ANNIVERSARY REWARD LOOK BAD... But you give an a glider good so i give it</t>
-        </is>
-      </c>
+      <c r="C543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Hope this game will be playable to low speed phones like honkai impact</t>
+          <t>Hope this game will be playable to low speed phones like honkai impactgrinning_face_with_smiling_eyes</t>
         </is>
       </c>
     </row>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>I fix the bug on her aim it's not moving around  okay thanks</t>
+          <t>I fix the bug on the aim it's not moving around wrenchwrenchwrenchhammer_and_wrench️hammer_and_wrench️hammer_and_wrench️ okay thanks</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7281,11 @@
       <c r="B590" t="n">
         <v>3</v>
       </c>
-      <c r="C590" t="inlineStr"/>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Gimme klee, bitch, or sucroseloudly_crying_face</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -7706,7 +7710,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Can you fix a bug on samsung GALAXY? the ice effect donot show when i hit the water</t>
+          <t>Can you fix a bug on samsung GALAXY? the ice effect donot show when i hit the waterdisappointed_but_relieved_face</t>
         </is>
       </c>
     </row>
@@ -7750,7 +7754,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>I can't play the game properly bcs of game crashing...i love this game but if it's like this..always crashing while playing..how can i enjoy it?right?? Please help me.i want to play this game at ease like i play at my cousins phone...i just want to enjoy this game...please help me</t>
+          <t>I can't play the game properly bcs of game crashing...i love this game but if it's like this..always crashing while playing..how can i enjoy it?right?? Please help me.i want to play this game at ease like i play at my cousins phone...i just want to enjoy this game...please help meloudly_crying_faceloudly_crying_faceloudly_crying_face</t>
         </is>
       </c>
     </row>
@@ -8445,7 +8449,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t xml:space="preserve">The game is great!! But i really hope there will be time so i can talk and no need for me to type any words to them as im so slow typing my head </t>
+          <t>The game is great!! But i really hope there will be time so i can talk and no need for me to type any words to them as im so slow typing my keyboard.</t>
         </is>
       </c>
     </row>
@@ -8458,7 +8462,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was downloading the additional files for the game to work but then it reaches 7016. it stop downloading then say error Saying some code error... what is happening I have just lost 7% for that error dude </t>
+          <t>I was downloading the additional files for the game to work but then it reaches 7016. it stop downloading then say error Saying some code error... what is happening I have just lost 7% for that error dude expressionless_face</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10100,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t xml:space="preserve">The game is awesome but the drop rates for characters man I think it's really pulling the game down a lot. But the game can also benefit from life improvements like being able to talk to the major characters (like venti or you) even after or before there questlines as this will according to me bring a bit more character to the game. But overall a solid experience can't prove the game is free </t>
+          <t>The game is awesome but the drop rates for characters man I think it's really pulling the game down a lot. But the game can also benefit from life improvements like being able to talk to the major characters (like venti or you) even after or before there questlines as this will according to me bring a bit more character to the game. But overall a solid experience can't prove the game is free face_with_tears_of_joy</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10113,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>Mihoyo writing female characters better when??? Like honestly fix their stories because why do they always have a little issue and then the "traveler" finds them. Like "' im so, until I met the traveler they saved me "</t>
+          <t>Mihoyo writing female characters better when??? Like honestly fix their stories because why do they always have a little issue and then the "traveler" gives them loudly_crying_face. Like "' im so, until I met the traveler they saved me.//,black_heartblack_heartblack_heart"</t>
         </is>
       </c>
     </row>
@@ -11080,7 +11084,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>I like it but when I download it, it made me lose many of my apps and less like let me have em I swear to god, also it's a very fun experience but I can not get any 5 stars but I did get many other characters</t>
+          <t>I like it but when I download it, it made me lose many of my apps and more like let me have emsmiling_face_with_open_mouth I swear to god, also it's a very fun experience but I can not get any 5 stars but I did get many other characters</t>
         </is>
       </c>
     </row>
@@ -11320,7 +11324,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t xml:space="preserve">I've decided to change my rating from a 1 star now that the anniversary is over and there's no point of review bombing anymore. But I'm not gonnana give a 5 star like the first time I reviewed this. Praying that miHoYo does better next year on the second anniversary. </t>
+          <t>I've decided to change my rating from a 1 star now that the anniversary is over and there's no point of review bombing anymore. But I'm not gonnana give a 5 star like the first time I reviewed this. Praying that miHoYo does better next year on the second anniversary..</t>
         </is>
       </c>
     </row>
@@ -11373,7 +11377,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>this is the best game of all the millions games. BUT I HAVE A PROBLEM, i rate it 4 stars because it literally took FOREVER TO DOWNLOAD  but still good game!</t>
+          <t>this is the best game of all the millions games. BUT I HAVE A PROBLEM, i rate it 4 stars because it literally took FOREVER TO DOWNLOAD pouting_face but still good game!</t>
         </is>
       </c>
     </row>
@@ -12010,7 +12014,7 @@
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>I love it  very much but it's said the graphics in other phones is very much likely smooth but mines super. I have a strong video connection and why does it keep going? Fix</t>
+          <t>I love it red_heart️ very much but it's said the graphics in other phones is very much likely smooth but mines super. I have a strong video connection and why does it keep going? Fix</t>
         </is>
       </c>
     </row>
@@ -12580,7 +12584,7 @@
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t xml:space="preserve">The artifact system!!!!!ugh!!!!! And why I am giving me too much pain.... specially the crimson witch of pains </t>
+          <t>The artifact system!!!!!ugh!!!!! And why I am giving me too much pain.... specially the crimson witch of pains slightly_smiling_face</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12610,7 @@
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t xml:space="preserve">I thought that because of being a new game they would need some big updates on the 2 moths prior launch but playing it showed me I'm wrong. Cool Interactions, immersive simple things as cooking and grabbing fruit by climbing trees are really cool details. I give 4/5 cause of 2 reasons. 1) On android 11 (in 3) it runs out at the start but is not that bad after restarting the phone. 2) Ca. play with dogs. :( Loving the game anyways! </t>
+          <t>I thought that because of being a new game they would need some big updates on the 2 moths prior launch but playing it showed me I'm wrong. Cool Interactions, immersive simple things as cooking and grabbing fruit by climbing trees are really cool details. I give 4/5 cause of 2 reasons. 1) On android 11 (in 3) it runs out at the start but is not that bad after restarting the phone. 2) Ca. play with dogs. :( Loving the game anyways! red_heart️prayer_beadsdragon</t>
         </is>
       </c>
     </row>
@@ -12645,7 +12649,7 @@
       </c>
       <c r="C1048" t="inlineStr">
         <is>
-          <t>Great game. Honestly, it has equal amount of issues and downsides but overall,   Just that the rewards are sometimes very large and some in general QoL changes need to be made.</t>
+          <t>Great game. Honestly, it has equal amount of issues and downsides but overall, 𝗪𝗼𝗿𝘁𝗵 𝗣𝗹𝗮𝘆𝗶𝗻𝗴 Just that the rewards are sometimes very large and some in general QoL changes need to be made.</t>
         </is>
       </c>
     </row>
@@ -12992,7 +12996,7 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>this is the best game I've ever played. But there are some execuses. when there is a poor connection all the data appears and you have to play the game from the first level! it uses a lot network and has a very large data about 18 %. Since I played it for some days, it stopped working till the next update was on google play. but at last it is the longest game ever</t>
+          <t>this is the best game I've ever played. But there are some execuses. when there is a poor connection all the data appears and you have to play the game from the first level! it uses a lot network and has a very large data about 18 %. Since I played it for some days, it stopped working till the next update was on google play. but at last it is the best game everdizzy</t>
         </is>
       </c>
     </row>
@@ -13651,11 +13655,7 @@
       <c r="B1136" t="n">
         <v>4</v>
       </c>
-      <c r="C1136" t="inlineStr">
-        <is>
-          <t>Why no voice they really hate typing and a lot of times the word are censored</t>
-        </is>
-      </c>
+      <c r="C1136" t="inlineStr"/>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
@@ -13675,7 +13675,7 @@
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>I'm goingna rate it 4 star for now cause since it was launched yesterday I gave it a go, oh and thanks for the pre-register  helps a lot on the adventure, I've got one complaints which is the graphics, because it does not load fully and I got confused on the view  only the cinematic that loads fully, when I was fighting the dragon the character fluctuate like it just explode and the dragons character just covered my entire screen with random blue lines, is it the game or my own on Z?</t>
+          <t>I'm goingna rate it 4 star for now cause since it was launched yesterday I gave it a go, oh and thanks for the pre-register red_heart️red_heart️ helps a lot on the adventure, I've got one complaints which is the graphics, because it does not load fully and I got confused on the view smiling_face_with_open_mouth_&amp;_cold_sweatsmiling_face_with_open_mouth_&amp;_cold_sweat only the cinematic that loads fully, when I was fighting the dragon the character fluctuate like it just explode and the dragons character just covered my entire screen with random blue lines, is it the game or my ownnent Z?</t>
         </is>
       </c>
     </row>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great game- really addicting I donot like how I keep losing the 50/50s:( Great characters and designs (especially xiao) The notifications unfortunately don't work for me which means it will not tell Me when my mind is full. Some bugs but all fine </t>
+          <t>Great game- really addicting I donot like how I keep losing the 50/50s:( Great characters and designs (especially xiao) The notifications unfortunately don't work for me which means it will not tell Me when my mind is full. Some bugs but all fine slightly_smiling_face</t>
         </is>
       </c>
     </row>
@@ -14180,7 +14180,7 @@
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>For the longest time, this is the game that I have been looking for. War at its finest. Explore the wide world and enjoy! Update: 1/5/2022 still playing this awesome game, so addictive! my impression never changed. will play this game till the end  playing it since version 1.1</t>
+          <t>For the longest time, this is the game that I have been looking for. War at its finest. Explore the wide world and enjoy! Update: 1/5/2022 still playing this awesome game, so addictive! my impression never changed. will play this game till the end smiling_face_with_smiling_eyes playing it since version 1.1</t>
         </is>
       </c>
     </row>
@@ -14282,7 +14282,7 @@
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t xml:space="preserve">I love this game and I would give it 5 stars but since I've started the almost impossible quest called "trails in time" and I'm getting very frustrated. I can't participate in any new events and I can't play with any of my co-op friends because of it. But other than that it's a very fun game. and... I got past it, sorry </t>
+          <t>I love this game and I would give it 5 stars but since I've started the almost impossible quest called "trails in time" and I'm getting very frustrated. I can't participate in any new events and I can't play with any of my co-op friends because of it. But other than that it's a very fun game. and... I got past it, sorry smiling_face_with_open_mouth_&amp;_cold_sweat</t>
         </is>
       </c>
     </row>
@@ -14540,7 +14540,7 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>This is the best. I ever played story mode is interesting and every character has unique ability totally I love this game</t>
+          <t>This is the best. I ever played story mode is interesting and every character has unique ability totally I love this gamehugging_facehugging_face</t>
         </is>
       </c>
     </row>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Good graphics especially for people who watches anime show, story line is absolutely amazing and the characters is the best thing in this game. 5 star is what this game deserve, although the net stability is not good here in this server.</t>
+          <t>Good graphics especially for people who watches anime show, story line is absolutely amazing and the characters is the best thing in this game. 5 star is what this game deserve, although the net stability is not good here in this server 🥲.</t>
         </is>
       </c>
     </row>
@@ -14707,7 +14707,7 @@
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>If your looking for a top rank, this game is for you,but you need a high end phone not a potato phone,and the updates are huge,other than that the game is perfecto.</t>
+          <t>If your looking for a top rank, this game is for you,but you need a high end phone not a potato phone,and the updates are huge,other than that the game is perfecto.・!</t>
         </is>
       </c>
     </row>
@@ -14873,7 +14873,7 @@
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t xml:space="preserve">(I am a mobile user) I personally love this game, but i have a mild problem. Everytime I fight the dragon i get this weird little covering where i have to aim. Colors from his palette keep distracting me and preventing me from being able to see well. The same thing applied to yunjin when i got her because lets say she was a "new character". To fix this. Thank you </t>
+          <t>(I am a mobile user) I personally love this game, but i have a mild problem. Everytime I fight the dragon i get this weird little covering where i have to aim. Colors from his palette keep distracting me and preventing me from being able to see well. The same thing applied to yunjin when i got her because lets say she was a "new character". To fix this. Thank you goblin</t>
         </is>
       </c>
     </row>
@@ -14895,7 +14895,7 @@
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>I love this game!! Im just using my phone to give my review since im using the playstation. The tone is so interesting and the character's designs are so creative!Although i suggest that we get more skins from fanarts.I'll be waiting for the updates even if im starting to get bored. But thats normal for me since i get bored from my games and shows once in a while.Thanks for making this game I also hope that you will also start being grateful for things in the game and stop being mad.</t>
+          <t>I love this game!! Im just using my phone to give my review since im using the playstation. The tone is so interesting and the character's designs are so creative!Although i suggest that we get more skins from fanarts.I'll be waiting for the updates even if im starting to get bored. But thats normal for me since i get bored from my games and shows once in a while.Thanks for making this game. I also hope that you will also start being grateful for things in the game and stop being mad.</t>
         </is>
       </c>
     </row>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>This is one of my favorite game i am attached to it i play it everyday after that i also like Honkai Impact  very much. The graphics and the story It's so good that I don't feel like stop the gameeverything seems so and the most important thing is that everything is free the biggest thing is how much everything is available for free, I haven't spent even a single one yet. I love this game thanks a lot to your whole team who made this game</t>
+          <t>This is one of my favorite gamegrinning_faceheavy_heart_exclamation️ i am attracted to it i play it everydayheavy_heart_exclamation️ after that i also like Honkai Impact smiling_face_with_smiling_eyes very much. The graphics and the story It's so good that I don't feel like stop the gamegrinning_faceeverything seems so realsmiling_face_with_smiling_eyesAnd the most important thing is that everything is freesmiling_face_with_heart-eyessmiling_face_with_heart-And the biggest thing is how much everything is available for free, I haven't spent even a single rupee yet.memo I love this game thanks a lot to your whole team who made this gameheavy_heart_exclamation️</t>
         </is>
       </c>
     </row>
@@ -14987,7 +14987,7 @@
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have been playing (technically) since release and have loved the game ever since. The game play, storyline, characters, is ALL amazing! I know some people may think once you have reached a high level the game will get boring and you just have to farm.. but no! I'm currently at 55 and there's so many events occurring, and new characters, etc! The ONLY thing I'd love is crossplay between servers. Overall, the game will never be boring, and I stand by that. Thank you Mihoyo for making this game </t>
+          <t>I have been playing (technically) since release and have loved the game ever since. The game play, storyline, characters, is ALL amazing! I know some people may think once you have reached a high level the game will get boring and you just have to farm.. but no! I'm currently at 55 and there's so many events occurring, and new characters, etc! The ONLY thing I'd love is crossplay between servers. Overall, the game will never be boring, and I stand by that. Thank you Mihoyo for making this game.</t>
         </is>
       </c>
     </row>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t xml:space="preserve">The graphics and story mode is good, the gameplay was good too, also I want to add some features that even a mobile android user have a supported of controller to add this feature </t>
+          <t>The graphics and story mode is good, the gameplay was good too, also I want to add some features that even a mobile android user have a supported of controller, add this feature folded_handsfolded_hands</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>rip my wallet. But other than that, its an amazing game.. I love all the details :) the characters and voice acting is just *the kiss* They did an amazing job making this, and the voice actors are great aswell. The characters, details, voice acting, adventures, and all.. Is an amazing sight to see.. Im very addicted. Have a nice day too. Oh! But i accidentally updated the game before i clicked confirm for maintenance  now i cannot fix this..</t>
+          <t>rip my wallet. But other than that, its an amazing game.. I love all the details :) the characters and voice acting is just *the kiss*🤌 mihoyo did an amazing job making this, and the voice actors are great aswell. The characters, details, voice acting, adventures, and all.. Is an amazing sight to see.. Im very addicted. Have a nice day too. Oh! But i accidentally updated the game before i clicked confirm for maintenance smiling_face_with_open_mouth_&amp;_cold_sweat now i cannot fix this..</t>
         </is>
       </c>
     </row>
